--- a/MVP/SHOPPING_LISTS/ROMYNOX.xlsx
+++ b/MVP/SHOPPING_LISTS/ROMYNOX.xlsx
@@ -55,7 +55,7 @@
     <t>ROMYNOX</t>
   </si>
   <si>
-    <t>300 0536</t>
+    <t>CG-125X250</t>
   </si>
   <si>
     <t>PTFE (general)</t>
@@ -444,7 +444,7 @@
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="50.7109375" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="26.7109375" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" customWidth="1"/>
